--- a/data/survival/Westcott/D_survival_06202024.xlsx
+++ b/data/survival/Westcott/D_survival_06202024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869664D6-6F08-D443-805D-EBA44D88F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774863D-A696-8E48-BFF4-DDEECE1175BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>bag_num</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>4.5 shells</t>
+  </si>
+  <si>
+    <t>surveyor</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Erik</t>
   </si>
 </sst>
 </file>
@@ -444,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A079655-F369-EC42-A8CC-268AB3376697}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,10 +472,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11</v>
       </c>
@@ -476,8 +488,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -488,10 +503,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -501,8 +519,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -512,8 +533,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -523,8 +547,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -535,10 +562,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17</v>
       </c>
@@ -549,10 +579,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -563,10 +596,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -576,8 +612,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -587,8 +626,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -599,10 +641,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -612,8 +657,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>23</v>
       </c>
@@ -623,8 +671,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24</v>
       </c>
@@ -635,10 +686,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>25</v>
       </c>
@@ -648,8 +702,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>26</v>
       </c>
@@ -660,10 +717,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27</v>
       </c>
@@ -674,10 +734,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -688,10 +751,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>29</v>
       </c>
@@ -701,8 +767,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>30</v>
       </c>
@@ -713,10 +782,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>31</v>
       </c>
@@ -726,8 +798,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>32</v>
       </c>
@@ -738,6 +813,9 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>10</v>
       </c>
     </row>
